--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Alk.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>0.150917</v>
       </c>
       <c r="O2">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P2">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q2">
-        <v>0.01077850890855556</v>
+        <v>0.05059794259</v>
       </c>
       <c r="R2">
-        <v>0.09700658017700001</v>
+        <v>0.45538148331</v>
       </c>
       <c r="S2">
-        <v>0.0004528922157727198</v>
+        <v>0.001412349527361257</v>
       </c>
       <c r="T2">
-        <v>0.0004528922157727197</v>
+        <v>0.001412349527361257</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N3">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O3">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P3">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q3">
-        <v>0.008712825034888889</v>
+        <v>0.08552503011000001</v>
       </c>
       <c r="R3">
-        <v>0.07841542531399999</v>
+        <v>0.7697252709900001</v>
       </c>
       <c r="S3">
-        <v>0.0003660961519973043</v>
+        <v>0.002387275641466271</v>
       </c>
       <c r="T3">
-        <v>0.0003660961519973042</v>
+        <v>0.002387275641466271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I4">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J4">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>0.150917</v>
       </c>
       <c r="O4">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P4">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q4">
         <v>12.77607061819256</v>
@@ -697,10 +697,10 @@
         <v>114.984635563733</v>
       </c>
       <c r="S4">
-        <v>0.5368259172239608</v>
+        <v>0.3566207710331784</v>
       </c>
       <c r="T4">
-        <v>0.5368259172239607</v>
+        <v>0.3566207710331785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I5">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J5">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N5">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O5">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P5">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q5">
-        <v>10.32755725992289</v>
+        <v>21.59522242163967</v>
       </c>
       <c r="R5">
-        <v>92.948015339306</v>
+        <v>194.357001794757</v>
       </c>
       <c r="S5">
-        <v>0.4339440947396241</v>
+        <v>0.6027913511742653</v>
       </c>
       <c r="T5">
-        <v>0.4339440947396241</v>
+        <v>0.6027913511742654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H6">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I6">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J6">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.150917</v>
       </c>
       <c r="O6">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P6">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q6">
-        <v>0.3731780833661111</v>
+        <v>0.4696873249538889</v>
       </c>
       <c r="R6">
-        <v>3.358602750295</v>
+        <v>4.227185924585</v>
       </c>
       <c r="S6">
-        <v>0.0156802253899277</v>
+        <v>0.01311046729274132</v>
       </c>
       <c r="T6">
-        <v>0.0156802253899277</v>
+        <v>0.01311046729274132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H7">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I7">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J7">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N7">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O7">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P7">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q7">
-        <v>0.3016591046877777</v>
+        <v>0.7939062450516668</v>
       </c>
       <c r="R7">
-        <v>2.714931942189999</v>
+        <v>7.145156205465001</v>
       </c>
       <c r="S7">
-        <v>0.01267513544676107</v>
+        <v>0.02216044867779814</v>
       </c>
       <c r="T7">
-        <v>0.01267513544676107</v>
+        <v>0.02216044867779814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H8">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I8">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J8">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,22 +933,22 @@
         <v>0.150917</v>
       </c>
       <c r="O8">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P8">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q8">
-        <v>0.000732249284</v>
+        <v>0.02020570699911111</v>
       </c>
       <c r="R8">
-        <v>0.006590243555999999</v>
+        <v>0.181851362992</v>
       </c>
       <c r="S8">
-        <v>3.076770669693585E-05</v>
+        <v>0.0005640055557483215</v>
       </c>
       <c r="T8">
-        <v>3.076770669693585E-05</v>
+        <v>0.0005640055557483215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.204976</v>
+      </c>
+      <c r="I9">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="J9">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.014556</v>
-      </c>
-      <c r="H9">
-        <v>0.043668</v>
-      </c>
-      <c r="I9">
-        <v>5.563883195642279E-05</v>
-      </c>
-      <c r="J9">
-        <v>5.563883195642279E-05</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M9">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N9">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O9">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P9">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q9">
-        <v>0.0005919148879999999</v>
+        <v>0.03415343808533334</v>
       </c>
       <c r="R9">
-        <v>0.005327233991999998</v>
+        <v>0.307380942768</v>
       </c>
       <c r="S9">
-        <v>2.487112525948695E-05</v>
+        <v>0.0009533310974410213</v>
       </c>
       <c r="T9">
-        <v>2.487112525948695E-05</v>
+        <v>0.0009533310974410213</v>
       </c>
     </row>
   </sheetData>
